--- a/biology/Zoologie/Collinsia_(Araneae)/Collinsia_(Araneae).xlsx
+++ b/biology/Zoologie/Collinsia_(Araneae)/Collinsia_(Araneae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Collinsia est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collinsia est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 27/01/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 27/01/2023) :
 Collinsia borea (L. Koch, 1879)
 Collinsia caliginosa (L. Koch, 1879)
 Collinsia clypiella (Chamberlin, 1920)
@@ -597,15 +613,17 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par O. Pickard-Cambridge en 1913 dans les Theridiidae.
-Parerigone[3] Crosby &amp; Bishop, 1926, préoccupé par  Parerigone Brauer, 1898, remplacé par Crosbyana par Strand en 1934[4], a été placé en synonymie par Crosby &amp; Bishop, 1928[5].
-Anitsia[6] a été placé en synonymie par Holm en 1944[7].
-Coryphaeus[8] F. O. Pickard-Cambridge, 1894, préoccupé par Coryphaeus Gistel, 1848, remplacé par Coryphaeolana[9], a été placé en synonymie par Holm en 1950[10].
-Catabrithorax[11] a été placé en synonymie par Hackman en 1954[12].
-Microerigone[13] a été placé en synonymie par Holm en 1958[14].
-Milleriana[15] a été placé en synonymie par Eskov en 1990[16].
+Parerigone Crosby &amp; Bishop, 1926, préoccupé par  Parerigone Brauer, 1898, remplacé par Crosbyana par Strand en 1934, a été placé en synonymie par Crosby &amp; Bishop, 1928.
+Anitsia a été placé en synonymie par Holm en 1944.
+Coryphaeus F. O. Pickard-Cambridge, 1894, préoccupé par Coryphaeus Gistel, 1848, remplacé par Coryphaeolana, a été placé en synonymie par Holm en 1950.
+Catabrithorax a été placé en synonymie par Hackman en 1954.
+Microerigone a été placé en synonymie par Holm en 1958.
+Milleriana a été placé en synonymie par Eskov en 1990.
 </t>
         </is>
       </c>
@@ -634,7 +652,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1913 : « On new and rare British arachnids noted and observed in 1912. » Proceedings of the Dorset Natural History and Antiquarian Field Club, vol. 34, p. 107-136.</t>
         </is>
